--- a/all_annotated/QADA_Q3_2018_3.xlsx
+++ b/all_annotated/QADA_Q3_2018_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruv/Desktop/SubjECTive-QA/Dhruv-annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F9F5C5-7277-8D44-A1A6-03F7C98F2898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857955DF-CB06-3543-9C0C-83D46CAAC386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>asker</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>At a high level, we're still are targeting to maintain growth at the 30% plus level. We are -- this quarter is the time where we have little bit of planning in terms of how we're going to achieve those but we are -- we feel that there is definitely room to continue that growth rate.</t>
+  </si>
+  <si>
+    <t>Well, most of our licenses definitely come from existing customers who are expanding the use of our product, maybe going into factories and other parts of the world where they haven't been in. And we expect -- as the manufacturing economy is strong, we expect that to pretty much continue, although 60% of our funnel is cloud, so we expect to continue to have strong bookings on the cloud. Next year, as we look forward, we can't see anything that's necessarily going to slowdown the manufacturing economy. Having said that though, something happens at the stock market, that could definitely start affecting our customers' customers and then our customers; so we're always on the watch for that.</t>
   </si>
 </sst>
 </file>
@@ -163,10 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="264" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,18 +548,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -562,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -571,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -579,13 +585,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -600,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -611,16 +617,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -632,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -643,19 +649,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -672,22 +678,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -710,27 +716,59 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
